--- a/src/excely/DVP_template_empty.xlsx
+++ b/src/excely/DVP_template_empty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Matfyz\5semester\TIS\DVP_parser1\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MatFyz\V_SEMESTER\BOGE\form-versions\src\excely\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5223E956-2A48-4490-8A06-3E66C63C89EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246DF23A-050B-4124-AD1C-ED802A8FFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22015" yWindow="-18904" windowWidth="44444" windowHeight="24388" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DVP Internal" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="128">
   <si>
     <r>
       <t>F</t>
@@ -651,13 +651,37 @@
     <t>511567-3</t>
   </si>
   <si>
-    <t>273.000.013.459_A</t>
-  </si>
-  <si>
     <t>4M0.412.377.F EM10</t>
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>273.000.013.459A</t>
+  </si>
+  <si>
+    <t>273.000.013.459B</t>
+  </si>
+  <si>
+    <t>273.000.013.459V</t>
+  </si>
+  <si>
+    <t>273.000.013.459C</t>
+  </si>
+  <si>
+    <t>273.000.013.459D</t>
+  </si>
+  <si>
+    <t>6M0.412.377.F EM10</t>
+  </si>
+  <si>
+    <t>nok</t>
+  </si>
+  <si>
+    <t>5/14/2019</t>
+  </si>
+  <si>
+    <t>5/14/2020</t>
   </si>
 </sst>
 </file>
@@ -2453,30 +2477,132 @@
     <xf numFmtId="166" fontId="13" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="61" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2491,108 +2617,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="57" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="61" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4187,104 +4211,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="BY8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="CH13" sqref="CH13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="263" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="62.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="84" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="7.140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="4.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="263" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="62.109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="84" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.109375" style="2" customWidth="1" outlineLevel="1"/>
     <col min="13" max="14" width="11" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="5.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="8.42578125" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="13.85546875" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="3.85546875" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="7.28515625" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="8.5703125" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="7.42578125" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="24" width="6.5703125" style="177" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="6.85546875" style="177" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="5.7109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.28515625" style="222" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="10.42578125" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="3.85546875" style="176" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="7.28515625" style="74" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="6.85546875" style="74" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="37" width="7.28515625" style="74" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="8.140625" style="74" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="7.28515625" style="74" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="5.7109375" style="62" customWidth="1"/>
-    <col min="41" max="42" width="6.5703125" style="74" customWidth="1" outlineLevel="2"/>
-    <col min="43" max="43" width="8.85546875" style="72" customWidth="1" outlineLevel="2"/>
-    <col min="44" max="45" width="8.85546875" style="77" customWidth="1" outlineLevel="2"/>
-    <col min="46" max="46" width="8.85546875" style="72" customWidth="1" outlineLevel="2"/>
-    <col min="47" max="47" width="8.85546875" style="77" customWidth="1" outlineLevel="2"/>
-    <col min="48" max="49" width="8.85546875" style="72" customWidth="1" outlineLevel="2"/>
-    <col min="50" max="50" width="6.5703125" style="2" customWidth="1" outlineLevel="2"/>
-    <col min="51" max="51" width="7.5703125" style="2" customWidth="1" outlineLevel="2"/>
-    <col min="52" max="53" width="6.5703125" style="2" customWidth="1" outlineLevel="2"/>
-    <col min="54" max="54" width="5.7109375" style="2" customWidth="1"/>
-    <col min="55" max="56" width="13.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="5.7109375" style="2" customWidth="1"/>
-    <col min="58" max="58" width="8.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="59" max="59" width="11.85546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="60" max="60" width="5.7109375" style="2" customWidth="1"/>
-    <col min="61" max="61" width="9.5703125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="5.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="8.44140625" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="13.88671875" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="3.88671875" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="7.33203125" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="8.5546875" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="7.44140625" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="24" width="6.5546875" style="177" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="6.88671875" style="177" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="5.6640625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.33203125" style="222" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="10.44140625" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="3.88671875" style="176" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="7.33203125" style="74" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="6.88671875" style="74" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="37" width="7.33203125" style="74" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="8.109375" style="74" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="7.33203125" style="74" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="5.6640625" style="62" customWidth="1"/>
+    <col min="41" max="42" width="6.5546875" style="74" customWidth="1" outlineLevel="2"/>
+    <col min="43" max="43" width="8.88671875" style="72" customWidth="1" outlineLevel="2"/>
+    <col min="44" max="45" width="8.88671875" style="77" customWidth="1" outlineLevel="2"/>
+    <col min="46" max="46" width="8.88671875" style="72" customWidth="1" outlineLevel="2"/>
+    <col min="47" max="47" width="8.88671875" style="77" customWidth="1" outlineLevel="2"/>
+    <col min="48" max="49" width="8.88671875" style="72" customWidth="1" outlineLevel="2"/>
+    <col min="50" max="50" width="6.5546875" style="2" customWidth="1" outlineLevel="2"/>
+    <col min="51" max="51" width="7.5546875" style="2" customWidth="1" outlineLevel="2"/>
+    <col min="52" max="53" width="6.5546875" style="2" customWidth="1" outlineLevel="2"/>
+    <col min="54" max="54" width="5.6640625" style="2" customWidth="1"/>
+    <col min="55" max="56" width="13.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="5.6640625" style="2" customWidth="1"/>
+    <col min="58" max="58" width="8.44140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="11.88671875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="5.6640625" style="2" customWidth="1"/>
+    <col min="61" max="61" width="9.5546875" style="2" customWidth="1" outlineLevel="1"/>
     <col min="62" max="62" width="11" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="5.7109375" style="2" customWidth="1"/>
-    <col min="64" max="64" width="11.5703125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="7.85546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="11.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="67" max="67" width="5.7109375" style="2" customWidth="1"/>
+    <col min="63" max="63" width="5.6640625" style="2" customWidth="1"/>
+    <col min="64" max="64" width="11.5546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="7.88671875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="11.44140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="67" max="67" width="5.6640625" style="2" customWidth="1"/>
     <col min="68" max="68" width="11" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="13.85546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="5.7109375" style="2" customWidth="1"/>
-    <col min="71" max="71" width="8.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="72" max="72" width="8.28515625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="73" max="73" width="9.28515625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="13.88671875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="5.6640625" style="2" customWidth="1"/>
+    <col min="71" max="71" width="8.33203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="72" max="72" width="8.33203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="73" max="73" width="9.33203125" style="2" customWidth="1" outlineLevel="1"/>
     <col min="74" max="74" width="15" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="75" max="75" width="10.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="5.7109375" style="2" customWidth="1"/>
-    <col min="77" max="77" width="11.140625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="78" width="10.85546875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="79" max="79" width="5.7109375" style="2" customWidth="1"/>
-    <col min="80" max="80" width="17.42578125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="81" max="81" width="18.42578125" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="82" max="82" width="23.28515625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="83" max="83" width="5.7109375" style="2" customWidth="1"/>
+    <col min="75" max="75" width="10.109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="5.6640625" style="2" customWidth="1"/>
+    <col min="77" max="77" width="11.109375" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="10.88671875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="79" max="79" width="5.6640625" style="2" customWidth="1"/>
+    <col min="80" max="80" width="17.44140625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="81" max="81" width="18.44140625" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="82" max="82" width="23.33203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="83" max="83" width="5.6640625" style="2" customWidth="1"/>
     <col min="84" max="84" width="11" style="31" customWidth="1" outlineLevel="1"/>
     <col min="85" max="85" width="12" style="229" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="86" width="6.5703125" style="230" customWidth="1" outlineLevel="1"/>
-    <col min="87" max="87" width="13.7109375" style="229" customWidth="1" outlineLevel="1"/>
-    <col min="88" max="88" width="5.7109375" style="2" customWidth="1"/>
+    <col min="86" max="86" width="6.5546875" style="230" customWidth="1" outlineLevel="1"/>
+    <col min="87" max="87" width="13.6640625" style="229" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="5.6640625" style="2" customWidth="1"/>
     <col min="89" max="89" width="8" style="8" customWidth="1"/>
-    <col min="90" max="90" width="12.7109375" style="5" customWidth="1"/>
-    <col min="91" max="91" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="33.7109375" style="5" customWidth="1"/>
-    <col min="93" max="94" width="8.28515625" style="5" customWidth="1"/>
-    <col min="95" max="95" width="6.85546875" style="5" customWidth="1"/>
-    <col min="96" max="96" width="9.28515625" style="5" customWidth="1"/>
-    <col min="97" max="97" width="11.42578125" style="5" customWidth="1"/>
-    <col min="98" max="98" width="10.140625" style="5" customWidth="1"/>
-    <col min="99" max="99" width="15.42578125" style="5" customWidth="1"/>
-    <col min="100" max="100" width="22.42578125" style="5" customWidth="1"/>
-    <col min="101" max="16384" width="11.42578125" style="5"/>
+    <col min="90" max="90" width="12.6640625" style="5" customWidth="1"/>
+    <col min="91" max="91" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="33.6640625" style="5" customWidth="1"/>
+    <col min="93" max="94" width="8.33203125" style="5" customWidth="1"/>
+    <col min="95" max="95" width="6.88671875" style="5" customWidth="1"/>
+    <col min="96" max="96" width="9.33203125" style="5" customWidth="1"/>
+    <col min="97" max="97" width="11.44140625" style="5" customWidth="1"/>
+    <col min="98" max="98" width="10.109375" style="5" customWidth="1"/>
+    <col min="99" max="99" width="15.44140625" style="5" customWidth="1"/>
+    <col min="100" max="100" width="22.44140625" style="5" customWidth="1"/>
+    <col min="101" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101" ht="18" customHeight="1" thickBot="1">
@@ -4303,80 +4327,80 @@
       <c r="CU1" s="7"/>
       <c r="CV1" s="7"/>
     </row>
-    <row r="2" spans="1:101" s="10" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="291" t="s">
+    <row r="2" spans="1:101" s="10" customFormat="1" ht="39.049999999999997" customHeight="1" thickBot="1">
+      <c r="A2" s="297" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="313" t="s">
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="289" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="297" t="s">
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="291"/>
+      <c r="O2" s="305" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="312" t="s">
+      <c r="P2" s="286" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="304"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="304" t="s">
+      <c r="Q2" s="287"/>
+      <c r="R2" s="287"/>
+      <c r="S2" s="288"/>
+      <c r="T2" s="287" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="305"/>
-      <c r="Z2" s="297" t="s">
+      <c r="U2" s="287"/>
+      <c r="V2" s="287"/>
+      <c r="W2" s="287"/>
+      <c r="X2" s="287"/>
+      <c r="Y2" s="288"/>
+      <c r="Z2" s="305" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="312" t="s">
+      <c r="AA2" s="286" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="304"/>
-      <c r="AD2" s="305"/>
-      <c r="AE2" s="301" t="s">
+      <c r="AB2" s="287"/>
+      <c r="AC2" s="287"/>
+      <c r="AD2" s="288"/>
+      <c r="AE2" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="302"/>
-      <c r="AG2" s="302"/>
-      <c r="AH2" s="302"/>
-      <c r="AI2" s="302"/>
-      <c r="AJ2" s="302"/>
-      <c r="AK2" s="302"/>
-      <c r="AL2" s="302"/>
-      <c r="AM2" s="303"/>
-      <c r="AN2" s="297" t="s">
+      <c r="AF2" s="310"/>
+      <c r="AG2" s="310"/>
+      <c r="AH2" s="310"/>
+      <c r="AI2" s="310"/>
+      <c r="AJ2" s="310"/>
+      <c r="AK2" s="310"/>
+      <c r="AL2" s="310"/>
+      <c r="AM2" s="311"/>
+      <c r="AN2" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="AO2" s="306" t="s">
+      <c r="AO2" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="307"/>
-      <c r="AQ2" s="307"/>
-      <c r="AR2" s="306" t="s">
+      <c r="AP2" s="295"/>
+      <c r="AQ2" s="295"/>
+      <c r="AR2" s="294" t="s">
         <v>76</v>
       </c>
-      <c r="AS2" s="307"/>
-      <c r="AT2" s="318"/>
-      <c r="AU2" s="306" t="s">
+      <c r="AS2" s="295"/>
+      <c r="AT2" s="296"/>
+      <c r="AU2" s="294" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="307"/>
-      <c r="AW2" s="307"/>
+      <c r="AV2" s="295"/>
+      <c r="AW2" s="295"/>
       <c r="AX2" s="76" t="s">
         <v>74</v>
       </c>
@@ -4386,11 +4410,11 @@
       <c r="BB2" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="289" t="s">
+      <c r="BC2" s="323" t="s">
         <v>47</v>
       </c>
-      <c r="BD2" s="290"/>
-      <c r="BE2" s="316" t="s">
+      <c r="BD2" s="324"/>
+      <c r="BE2" s="292" t="s">
         <v>47</v>
       </c>
       <c r="BF2" s="25" t="s">
@@ -4407,43 +4431,43 @@
       <c r="BK2" s="284" t="s">
         <v>49</v>
       </c>
-      <c r="BL2" s="286" t="s">
+      <c r="BL2" s="320" t="s">
         <v>50</v>
       </c>
-      <c r="BM2" s="287"/>
-      <c r="BN2" s="288"/>
+      <c r="BM2" s="321"/>
+      <c r="BN2" s="322"/>
       <c r="BO2" s="284" t="s">
         <v>50</v>
       </c>
-      <c r="BP2" s="286" t="s">
+      <c r="BP2" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="BQ2" s="288"/>
+      <c r="BQ2" s="322"/>
       <c r="BR2" s="284" t="s">
         <v>51</v>
       </c>
-      <c r="BS2" s="286" t="s">
+      <c r="BS2" s="320" t="s">
         <v>20</v>
       </c>
-      <c r="BT2" s="287"/>
-      <c r="BU2" s="287"/>
-      <c r="BV2" s="287"/>
-      <c r="BW2" s="288"/>
+      <c r="BT2" s="321"/>
+      <c r="BU2" s="321"/>
+      <c r="BV2" s="321"/>
+      <c r="BW2" s="322"/>
       <c r="BX2" s="284" t="s">
         <v>81</v>
       </c>
-      <c r="BY2" s="286" t="s">
+      <c r="BY2" s="320" t="s">
         <v>52</v>
       </c>
-      <c r="BZ2" s="288"/>
+      <c r="BZ2" s="322"/>
       <c r="CA2" s="284" t="s">
         <v>52</v>
       </c>
-      <c r="CB2" s="286" t="s">
+      <c r="CB2" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="CC2" s="287"/>
-      <c r="CD2" s="288"/>
+      <c r="CC2" s="321"/>
+      <c r="CD2" s="322"/>
       <c r="CE2" s="284" t="s">
         <v>82</v>
       </c>
@@ -4459,7 +4483,7 @@
       <c r="CK2" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="CL2" s="282" t="s">
+      <c r="CL2" s="318" t="s">
         <v>54</v>
       </c>
       <c r="CM2" s="89" t="s">
@@ -4476,7 +4500,7 @@
       <c r="CV2" s="9"/>
       <c r="CW2" s="9"/>
     </row>
-    <row r="3" spans="1:101" s="218" customFormat="1" ht="100.5" customHeight="1">
+    <row r="3" spans="1:101" s="218" customFormat="1" ht="100.55" customHeight="1">
       <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
@@ -4489,13 +4513,13 @@
       <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="294" t="s">
+      <c r="E3" s="300" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="310" t="s">
+      <c r="F3" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="311"/>
+      <c r="G3" s="315"/>
       <c r="H3" s="11" t="s">
         <v>84</v>
       </c>
@@ -4517,7 +4541,7 @@
       <c r="N3" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="298"/>
+      <c r="O3" s="306"/>
       <c r="P3" s="270" t="s">
         <v>88</v>
       </c>
@@ -4548,7 +4572,7 @@
       <c r="Y3" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="298"/>
+      <c r="Z3" s="306"/>
       <c r="AA3" s="201" t="s">
         <v>88</v>
       </c>
@@ -4561,44 +4585,44 @@
       <c r="AD3" s="202" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="308" t="s">
+      <c r="AE3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="AF3" s="309"/>
+      <c r="AF3" s="313"/>
       <c r="AG3" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="300" t="s">
+      <c r="AH3" s="308" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="300"/>
-      <c r="AJ3" s="300" t="s">
+      <c r="AI3" s="308"/>
+      <c r="AJ3" s="308" t="s">
         <v>110</v>
       </c>
-      <c r="AK3" s="300"/>
-      <c r="AL3" s="300" t="s">
+      <c r="AK3" s="308"/>
+      <c r="AL3" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="AM3" s="300"/>
-      <c r="AN3" s="298"/>
-      <c r="AO3" s="280" t="s">
+      <c r="AM3" s="308"/>
+      <c r="AN3" s="306"/>
+      <c r="AO3" s="303" t="s">
         <v>56</v>
       </c>
-      <c r="AP3" s="281"/>
+      <c r="AP3" s="304"/>
       <c r="AQ3" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="AR3" s="280" t="s">
+      <c r="AR3" s="303" t="s">
         <v>56</v>
       </c>
-      <c r="AS3" s="281"/>
+      <c r="AS3" s="304"/>
       <c r="AT3" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="AU3" s="280" t="s">
+      <c r="AU3" s="303" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="281"/>
+      <c r="AV3" s="304"/>
       <c r="AW3" s="204" t="s">
         <v>58</v>
       </c>
@@ -4621,7 +4645,7 @@
       <c r="BD3" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="BE3" s="317"/>
+      <c r="BE3" s="293"/>
       <c r="BF3" s="208" t="s">
         <v>0</v>
       </c>
@@ -4698,20 +4722,20 @@
       </c>
       <c r="CJ3" s="285"/>
       <c r="CK3" s="216"/>
-      <c r="CL3" s="283"/>
+      <c r="CL3" s="319"/>
       <c r="CM3" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="CN3" s="278" t="s">
+      <c r="CN3" s="316" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:101" s="10" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:101" s="10" customFormat="1" ht="16.600000000000001" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="37"/>
       <c r="C4" s="49"/>
       <c r="D4" s="50"/>
-      <c r="E4" s="295"/>
+      <c r="E4" s="301"/>
       <c r="F4" s="264"/>
       <c r="G4" s="219"/>
       <c r="H4" s="37"/>
@@ -4727,7 +4751,7 @@
       <c r="N4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="299"/>
+      <c r="O4" s="307"/>
       <c r="P4" s="271" t="s">
         <v>93</v>
       </c>
@@ -4756,7 +4780,7 @@
       <c r="Y4" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="299"/>
+      <c r="Z4" s="307"/>
       <c r="AA4" s="178" t="s">
         <v>93</v>
       </c>
@@ -4794,7 +4818,7 @@
       <c r="AM4" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="299"/>
+      <c r="AN4" s="307"/>
       <c r="AO4" s="75" t="s">
         <v>9</v>
       </c>
@@ -4837,7 +4861,7 @@
       <c r="BB4" s="285"/>
       <c r="BC4" s="63"/>
       <c r="BD4" s="63"/>
-      <c r="BE4" s="317"/>
+      <c r="BE4" s="293"/>
       <c r="BF4" s="58" t="s">
         <v>93</v>
       </c>
@@ -4902,9 +4926,9 @@
       <c r="CK4" s="12"/>
       <c r="CL4" s="33"/>
       <c r="CM4" s="34"/>
-      <c r="CN4" s="279"/>
+      <c r="CN4" s="317"/>
     </row>
-    <row r="5" spans="1:101" s="19" customFormat="1" ht="49.5" customHeight="1">
+    <row r="5" spans="1:101" s="19" customFormat="1" ht="49.55" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>33</v>
       </c>
@@ -4917,7 +4941,7 @@
       <c r="D5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="295"/>
+      <c r="E5" s="301"/>
       <c r="F5" s="265" t="s">
         <v>40</v>
       </c>
@@ -5077,7 +5101,7 @@
       <c r="B6" s="28"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="295"/>
+      <c r="E6" s="301"/>
       <c r="F6" s="266"/>
       <c r="G6" s="30"/>
       <c r="H6" s="47"/>
@@ -5099,7 +5123,9 @@
       <c r="V6" s="187"/>
       <c r="W6" s="187"/>
       <c r="X6" s="187"/>
-      <c r="Y6" s="189"/>
+      <c r="Y6" s="189">
+        <v>31</v>
+      </c>
       <c r="Z6" s="126"/>
       <c r="AA6" s="186"/>
       <c r="AB6" s="226"/>
@@ -5109,7 +5135,9 @@
       <c r="AF6" s="129"/>
       <c r="AG6" s="129"/>
       <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
+      <c r="AI6" s="129">
+        <v>43</v>
+      </c>
       <c r="AJ6" s="129"/>
       <c r="AK6" s="129"/>
       <c r="AL6" s="129"/>
@@ -5139,7 +5167,9 @@
       <c r="BJ6" s="136"/>
       <c r="BK6" s="134"/>
       <c r="BL6" s="137"/>
-      <c r="BM6" s="137"/>
+      <c r="BM6" s="137">
+        <v>23</v>
+      </c>
       <c r="BN6" s="136"/>
       <c r="BO6" s="134"/>
       <c r="BP6" s="135"/>
@@ -5173,7 +5203,7 @@
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
-      <c r="E7" s="296"/>
+      <c r="E7" s="302"/>
       <c r="F7" s="267"/>
       <c r="G7" s="67"/>
       <c r="H7" s="68"/>
@@ -5195,7 +5225,9 @@
       <c r="V7" s="191"/>
       <c r="W7" s="191"/>
       <c r="X7" s="191"/>
-      <c r="Y7" s="193"/>
+      <c r="Y7" s="193">
+        <v>50</v>
+      </c>
       <c r="Z7" s="151"/>
       <c r="AA7" s="190"/>
       <c r="AB7" s="227"/>
@@ -5205,7 +5237,9 @@
       <c r="AF7" s="154"/>
       <c r="AG7" s="154"/>
       <c r="AH7" s="154"/>
-      <c r="AI7" s="154"/>
+      <c r="AI7" s="154">
+        <v>45</v>
+      </c>
       <c r="AJ7" s="154"/>
       <c r="AK7" s="154"/>
       <c r="AL7" s="154"/>
@@ -5235,7 +5269,9 @@
       <c r="BJ7" s="165"/>
       <c r="BK7" s="163"/>
       <c r="BL7" s="166"/>
-      <c r="BM7" s="166"/>
+      <c r="BM7" s="166">
+        <v>45</v>
+      </c>
       <c r="BN7" s="165"/>
       <c r="BO7" s="163"/>
       <c r="BP7" s="164"/>
@@ -5264,7 +5300,7 @@
       <c r="CM7" s="70"/>
       <c r="CN7" s="90"/>
     </row>
-    <row r="8" spans="1:101" s="2" customFormat="1" ht="13.5" thickBot="1">
+    <row r="8" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
       <c r="A8" s="253"/>
       <c r="B8" s="254"/>
       <c r="C8" s="254"/>
@@ -5358,18 +5394,18 @@
       <c r="CM8" s="254"/>
       <c r="CN8" s="261"/>
     </row>
-    <row r="9" spans="1:101" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A9" s="319">
+    <row r="9" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A9" s="278">
         <v>44083</v>
       </c>
-      <c r="B9" s="319" t="s">
+      <c r="B9" s="278" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="319" t="s">
+      <c r="C9" s="278" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="279" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="320" t="s">
-        <v>118</v>
       </c>
       <c r="E9" s="174"/>
       <c r="F9" s="174"/>
@@ -5388,22 +5424,22 @@
       <c r="S9" s="250"/>
       <c r="T9" s="194"/>
       <c r="U9" s="195"/>
-      <c r="V9" s="321">
+      <c r="V9" s="280">
         <v>1051</v>
       </c>
       <c r="W9" s="195"/>
       <c r="X9" s="195"/>
       <c r="Y9" s="195"/>
-      <c r="Z9" s="324" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA9" s="322">
+      <c r="Z9" s="283" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" s="281">
         <v>2535</v>
       </c>
       <c r="AB9" s="228"/>
       <c r="AC9" s="195"/>
       <c r="AD9" s="250"/>
-      <c r="AE9" s="323">
+      <c r="AE9" s="282">
         <v>8.3000000000000007</v>
       </c>
       <c r="AF9" s="79"/>
@@ -5419,22 +5455,34 @@
       <c r="AP9" s="79"/>
       <c r="AQ9" s="44"/>
       <c r="AR9" s="80"/>
-      <c r="AS9" s="79"/>
+      <c r="AS9" s="79">
+        <v>45</v>
+      </c>
       <c r="AT9" s="44"/>
       <c r="AU9" s="80"/>
-      <c r="AV9" s="43"/>
+      <c r="AV9" s="43">
+        <v>3</v>
+      </c>
       <c r="AW9" s="83"/>
       <c r="AX9" s="42"/>
-      <c r="AY9" s="43"/>
+      <c r="AY9" s="43">
+        <v>654</v>
+      </c>
       <c r="AZ9" s="43"/>
       <c r="BA9" s="83"/>
-      <c r="BB9" s="251"/>
+      <c r="BB9" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="BC9" s="251"/>
       <c r="BD9" s="251"/>
       <c r="BE9" s="251"/>
       <c r="BF9" s="39"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="251"/>
+      <c r="BG9" s="32">
+        <v>4</v>
+      </c>
+      <c r="BH9" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="BI9" s="39"/>
       <c r="BJ9" s="32"/>
       <c r="BK9" s="251"/>
@@ -5445,16 +5493,24 @@
       <c r="BP9" s="39"/>
       <c r="BQ9" s="32"/>
       <c r="BR9" s="251"/>
-      <c r="BS9" s="39"/>
+      <c r="BS9" s="39">
+        <v>32</v>
+      </c>
       <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
+      <c r="BU9" s="29">
+        <v>123</v>
+      </c>
       <c r="BV9" s="29"/>
       <c r="BW9" s="32"/>
       <c r="BX9" s="251"/>
       <c r="BY9" s="39"/>
-      <c r="BZ9" s="32"/>
+      <c r="BZ9" s="32">
+        <v>5</v>
+      </c>
       <c r="CA9" s="251"/>
-      <c r="CB9" s="35"/>
+      <c r="CB9" s="35">
+        <v>21</v>
+      </c>
       <c r="CC9" s="35"/>
       <c r="CD9" s="252"/>
       <c r="CE9" s="251"/>
@@ -5468,22 +5524,34 @@
       <c r="CM9" s="252"/>
       <c r="CN9" s="94"/>
     </row>
-    <row r="10" spans="1:101" s="2" customFormat="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
+    <row r="10" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A10" s="278" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="278" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="279" t="s">
+        <v>117</v>
+      </c>
       <c r="E10" s="174"/>
       <c r="F10" s="174"/>
       <c r="G10" s="175"/>
       <c r="H10" s="98"/>
       <c r="I10" s="44"/>
       <c r="J10" s="91"/>
-      <c r="K10" s="86"/>
+      <c r="K10" s="86">
+        <v>543</v>
+      </c>
       <c r="L10" s="55"/>
       <c r="M10" s="79"/>
       <c r="N10" s="44"/>
-      <c r="O10" s="251"/>
+      <c r="O10" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="P10" s="194"/>
       <c r="Q10" s="195"/>
       <c r="R10" s="195"/>
@@ -5492,37 +5560,53 @@
       <c r="U10" s="195"/>
       <c r="V10" s="195"/>
       <c r="W10" s="195"/>
-      <c r="X10" s="195"/>
+      <c r="X10" s="195">
+        <v>45</v>
+      </c>
       <c r="Y10" s="195"/>
       <c r="Z10" s="251"/>
       <c r="AA10" s="194"/>
       <c r="AB10" s="228"/>
-      <c r="AC10" s="195"/>
+      <c r="AC10" s="195">
+        <v>43</v>
+      </c>
       <c r="AD10" s="250"/>
       <c r="AE10" s="96"/>
       <c r="AF10" s="79"/>
       <c r="AG10" s="79"/>
       <c r="AH10" s="79"/>
       <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
+      <c r="AJ10" s="79">
+        <v>32</v>
+      </c>
       <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
+      <c r="AL10" s="79">
+        <v>654</v>
+      </c>
       <c r="AM10" s="79"/>
-      <c r="AN10" s="93"/>
+      <c r="AN10" s="93" t="s">
+        <v>118</v>
+      </c>
       <c r="AO10" s="97"/>
       <c r="AP10" s="79"/>
-      <c r="AQ10" s="44"/>
+      <c r="AQ10" s="44">
+        <v>34.1</v>
+      </c>
       <c r="AR10" s="80"/>
       <c r="AS10" s="79"/>
       <c r="AT10" s="44"/>
       <c r="AU10" s="80"/>
       <c r="AV10" s="43"/>
-      <c r="AW10" s="83"/>
+      <c r="AW10" s="83">
+        <v>25</v>
+      </c>
       <c r="AX10" s="42"/>
       <c r="AY10" s="43"/>
       <c r="AZ10" s="43"/>
       <c r="BA10" s="83"/>
-      <c r="BB10" s="251"/>
+      <c r="BB10" s="251" t="s">
+        <v>125</v>
+      </c>
       <c r="BC10" s="251"/>
       <c r="BD10" s="251"/>
       <c r="BE10" s="251"/>
@@ -5530,27 +5614,39 @@
       <c r="BG10" s="32"/>
       <c r="BH10" s="251"/>
       <c r="BI10" s="39"/>
-      <c r="BJ10" s="32"/>
+      <c r="BJ10" s="32">
+        <v>432</v>
+      </c>
       <c r="BK10" s="251"/>
       <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
+      <c r="BM10" s="57">
+        <v>34</v>
+      </c>
       <c r="BN10" s="32"/>
       <c r="BO10" s="251"/>
-      <c r="BP10" s="39"/>
+      <c r="BP10" s="39">
+        <v>34</v>
+      </c>
       <c r="BQ10" s="32"/>
       <c r="BR10" s="251"/>
       <c r="BS10" s="39"/>
       <c r="BT10" s="29"/>
       <c r="BU10" s="29"/>
       <c r="BV10" s="29"/>
-      <c r="BW10" s="32"/>
+      <c r="BW10" s="32">
+        <v>34</v>
+      </c>
       <c r="BX10" s="251"/>
       <c r="BY10" s="39"/>
       <c r="BZ10" s="32"/>
-      <c r="CA10" s="251"/>
+      <c r="CA10" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="CB10" s="35"/>
       <c r="CC10" s="35"/>
-      <c r="CD10" s="252"/>
+      <c r="CD10" s="252">
+        <v>6</v>
+      </c>
       <c r="CE10" s="251"/>
       <c r="CF10" s="95"/>
       <c r="CG10" s="248"/>
@@ -5562,11 +5658,19 @@
       <c r="CM10" s="252"/>
       <c r="CN10" s="94"/>
     </row>
-    <row r="11" spans="1:101" s="2" customFormat="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
+    <row r="11" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A11" s="278">
+        <v>44113</v>
+      </c>
+      <c r="B11" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="278" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="279" t="s">
+        <v>117</v>
+      </c>
       <c r="E11" s="174"/>
       <c r="F11" s="174"/>
       <c r="G11" s="175"/>
@@ -5574,7 +5678,9 @@
       <c r="I11" s="44"/>
       <c r="J11" s="91"/>
       <c r="K11" s="86"/>
-      <c r="L11" s="55"/>
+      <c r="L11" s="55">
+        <v>23</v>
+      </c>
       <c r="M11" s="79"/>
       <c r="N11" s="44"/>
       <c r="O11" s="251"/>
@@ -5587,7 +5693,9 @@
       <c r="V11" s="195"/>
       <c r="W11" s="195"/>
       <c r="X11" s="195"/>
-      <c r="Y11" s="195"/>
+      <c r="Y11" s="195">
+        <v>31</v>
+      </c>
       <c r="Z11" s="251"/>
       <c r="AA11" s="194"/>
       <c r="AB11" s="228"/>
@@ -5596,8 +5704,12 @@
       <c r="AE11" s="96"/>
       <c r="AF11" s="79"/>
       <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
+      <c r="AH11" s="79">
+        <v>678</v>
+      </c>
+      <c r="AI11" s="79">
+        <v>765</v>
+      </c>
       <c r="AJ11" s="79"/>
       <c r="AK11" s="79"/>
       <c r="AL11" s="79"/>
@@ -5609,12 +5721,16 @@
       <c r="AR11" s="80"/>
       <c r="AS11" s="79"/>
       <c r="AT11" s="44"/>
-      <c r="AU11" s="80"/>
+      <c r="AU11" s="80">
+        <v>789</v>
+      </c>
       <c r="AV11" s="43"/>
       <c r="AW11" s="83"/>
       <c r="AX11" s="42"/>
       <c r="AY11" s="43"/>
-      <c r="AZ11" s="43"/>
+      <c r="AZ11" s="43">
+        <v>97</v>
+      </c>
       <c r="BA11" s="83"/>
       <c r="BB11" s="251"/>
       <c r="BC11" s="251"/>
@@ -5643,7 +5759,9 @@
       <c r="BZ11" s="32"/>
       <c r="CA11" s="251"/>
       <c r="CB11" s="35"/>
-      <c r="CC11" s="35"/>
+      <c r="CC11" s="35">
+        <v>654</v>
+      </c>
       <c r="CD11" s="252"/>
       <c r="CE11" s="251"/>
       <c r="CF11" s="95"/>
@@ -5656,11 +5774,19 @@
       <c r="CM11" s="252"/>
       <c r="CN11" s="94"/>
     </row>
-    <row r="12" spans="1:101" s="2" customFormat="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
+    <row r="12" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A12" s="278">
+        <v>44020</v>
+      </c>
+      <c r="B12" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="278" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="279" t="s">
+        <v>117</v>
+      </c>
       <c r="E12" s="174"/>
       <c r="F12" s="174"/>
       <c r="G12" s="175"/>
@@ -5669,9 +5795,13 @@
       <c r="J12" s="91"/>
       <c r="K12" s="86"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="79"/>
+      <c r="M12" s="79">
+        <v>1</v>
+      </c>
       <c r="N12" s="44"/>
-      <c r="O12" s="251"/>
+      <c r="O12" s="251" t="s">
+        <v>125</v>
+      </c>
       <c r="P12" s="194"/>
       <c r="Q12" s="195"/>
       <c r="R12" s="195"/>
@@ -5681,14 +5811,20 @@
       <c r="V12" s="195"/>
       <c r="W12" s="195"/>
       <c r="X12" s="195"/>
-      <c r="Y12" s="195"/>
+      <c r="Y12" s="195">
+        <v>23</v>
+      </c>
       <c r="Z12" s="251"/>
-      <c r="AA12" s="194"/>
+      <c r="AA12" s="194">
+        <v>654</v>
+      </c>
       <c r="AB12" s="228"/>
       <c r="AC12" s="195"/>
       <c r="AD12" s="250"/>
       <c r="AE12" s="96"/>
-      <c r="AF12" s="79"/>
+      <c r="AF12" s="79">
+        <v>546</v>
+      </c>
       <c r="AG12" s="79"/>
       <c r="AH12" s="79"/>
       <c r="AI12" s="79"/>
@@ -5697,7 +5833,9 @@
       <c r="AL12" s="79"/>
       <c r="AM12" s="79"/>
       <c r="AN12" s="93"/>
-      <c r="AO12" s="97"/>
+      <c r="AO12" s="97">
+        <v>34</v>
+      </c>
       <c r="AP12" s="79"/>
       <c r="AQ12" s="44"/>
       <c r="AR12" s="80"/>
@@ -5711,11 +5849,15 @@
       <c r="AZ12" s="43"/>
       <c r="BA12" s="83"/>
       <c r="BB12" s="251"/>
-      <c r="BC12" s="251"/>
+      <c r="BC12" s="251" t="s">
+        <v>125</v>
+      </c>
       <c r="BD12" s="251"/>
       <c r="BE12" s="251"/>
       <c r="BF12" s="39"/>
-      <c r="BG12" s="32"/>
+      <c r="BG12" s="32">
+        <v>543</v>
+      </c>
       <c r="BH12" s="251"/>
       <c r="BI12" s="39"/>
       <c r="BJ12" s="32"/>
@@ -5723,20 +5865,32 @@
       <c r="BL12" s="57"/>
       <c r="BM12" s="57"/>
       <c r="BN12" s="32"/>
-      <c r="BO12" s="251"/>
+      <c r="BO12" s="251" t="s">
+        <v>125</v>
+      </c>
       <c r="BP12" s="39"/>
       <c r="BQ12" s="32"/>
-      <c r="BR12" s="251"/>
+      <c r="BR12" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="BS12" s="39"/>
-      <c r="BT12" s="29"/>
+      <c r="BT12" s="29">
+        <v>345</v>
+      </c>
       <c r="BU12" s="29"/>
       <c r="BV12" s="29"/>
       <c r="BW12" s="32"/>
-      <c r="BX12" s="251"/>
-      <c r="BY12" s="39"/>
+      <c r="BX12" s="251" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY12" s="39">
+        <v>234</v>
+      </c>
       <c r="BZ12" s="32"/>
       <c r="CA12" s="251"/>
-      <c r="CB12" s="35"/>
+      <c r="CB12" s="35">
+        <v>6574</v>
+      </c>
       <c r="CC12" s="35"/>
       <c r="CD12" s="252"/>
       <c r="CE12" s="251"/>
@@ -5750,11 +5904,19 @@
       <c r="CM12" s="252"/>
       <c r="CN12" s="94"/>
     </row>
-    <row r="13" spans="1:101" s="2" customFormat="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
+    <row r="13" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A13" s="278">
+        <v>43934</v>
+      </c>
+      <c r="B13" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="278" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="279" t="s">
+        <v>124</v>
+      </c>
       <c r="E13" s="174"/>
       <c r="F13" s="174"/>
       <c r="G13" s="175"/>
@@ -5775,10 +5937,14 @@
       <c r="V13" s="195"/>
       <c r="W13" s="195"/>
       <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
+      <c r="Y13" s="195">
+        <v>45</v>
+      </c>
       <c r="Z13" s="251"/>
       <c r="AA13" s="194"/>
-      <c r="AB13" s="228"/>
+      <c r="AB13" s="228">
+        <v>23</v>
+      </c>
       <c r="AC13" s="195"/>
       <c r="AD13" s="250"/>
       <c r="AE13" s="96"/>
@@ -5794,10 +5960,14 @@
       <c r="AO13" s="97"/>
       <c r="AP13" s="79"/>
       <c r="AQ13" s="44"/>
-      <c r="AR13" s="80"/>
+      <c r="AR13" s="80">
+        <v>3345</v>
+      </c>
       <c r="AS13" s="79"/>
       <c r="AT13" s="44"/>
-      <c r="AU13" s="80"/>
+      <c r="AU13" s="80">
+        <v>765</v>
+      </c>
       <c r="AV13" s="43"/>
       <c r="AW13" s="83"/>
       <c r="AX13" s="42"/>
@@ -5806,7 +5976,9 @@
       <c r="BA13" s="83"/>
       <c r="BB13" s="251"/>
       <c r="BC13" s="251"/>
-      <c r="BD13" s="251"/>
+      <c r="BD13" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="BE13" s="251"/>
       <c r="BF13" s="39"/>
       <c r="BG13" s="32"/>
@@ -5819,7 +5991,9 @@
       <c r="BN13" s="32"/>
       <c r="BO13" s="251"/>
       <c r="BP13" s="39"/>
-      <c r="BQ13" s="32"/>
+      <c r="BQ13" s="32">
+        <v>654</v>
+      </c>
       <c r="BR13" s="251"/>
       <c r="BS13" s="39"/>
       <c r="BT13" s="29"/>
@@ -5844,11 +6018,19 @@
       <c r="CM13" s="252"/>
       <c r="CN13" s="94"/>
     </row>
-    <row r="14" spans="1:101" s="2" customFormat="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
+    <row r="14" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A14" s="278">
+        <v>44216</v>
+      </c>
+      <c r="B14" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="278" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="279" t="s">
+        <v>124</v>
+      </c>
       <c r="E14" s="174"/>
       <c r="F14" s="174"/>
       <c r="G14" s="175"/>
@@ -5856,17 +6038,23 @@
       <c r="I14" s="44"/>
       <c r="J14" s="91"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="55"/>
+      <c r="L14" s="55">
+        <v>234</v>
+      </c>
       <c r="M14" s="79"/>
       <c r="N14" s="44"/>
-      <c r="O14" s="251"/>
+      <c r="O14" s="251" t="s">
+        <v>125</v>
+      </c>
       <c r="P14" s="194"/>
       <c r="Q14" s="195"/>
       <c r="R14" s="195"/>
       <c r="S14" s="250"/>
       <c r="T14" s="194"/>
       <c r="U14" s="195"/>
-      <c r="V14" s="195"/>
+      <c r="V14" s="195">
+        <v>32</v>
+      </c>
       <c r="W14" s="195"/>
       <c r="X14" s="195"/>
       <c r="Y14" s="195"/>
@@ -5877,11 +6065,17 @@
       <c r="AD14" s="250"/>
       <c r="AE14" s="96"/>
       <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
+      <c r="AG14" s="79">
+        <v>876</v>
+      </c>
       <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
+      <c r="AI14" s="79">
+        <v>23</v>
+      </c>
       <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
+      <c r="AK14" s="79">
+        <v>678</v>
+      </c>
       <c r="AL14" s="79"/>
       <c r="AM14" s="79"/>
       <c r="AN14" s="93"/>
@@ -5895,7 +6089,9 @@
       <c r="AV14" s="43"/>
       <c r="AW14" s="83"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="43"/>
+      <c r="AY14" s="43">
+        <v>6789</v>
+      </c>
       <c r="AZ14" s="43"/>
       <c r="BA14" s="83"/>
       <c r="BB14" s="251"/>
@@ -5903,14 +6099,22 @@
       <c r="BD14" s="251"/>
       <c r="BE14" s="251"/>
       <c r="BF14" s="39"/>
-      <c r="BG14" s="32"/>
+      <c r="BG14" s="32">
+        <v>765</v>
+      </c>
       <c r="BH14" s="251"/>
-      <c r="BI14" s="39"/>
+      <c r="BI14" s="39">
+        <v>43</v>
+      </c>
       <c r="BJ14" s="32"/>
-      <c r="BK14" s="251"/>
+      <c r="BK14" s="251" t="s">
+        <v>125</v>
+      </c>
       <c r="BL14" s="57"/>
       <c r="BM14" s="57"/>
-      <c r="BN14" s="32"/>
+      <c r="BN14" s="32">
+        <v>43</v>
+      </c>
       <c r="BO14" s="251"/>
       <c r="BP14" s="39"/>
       <c r="BQ14" s="32"/>
@@ -5918,15 +6122,23 @@
       <c r="BS14" s="39"/>
       <c r="BT14" s="29"/>
       <c r="BU14" s="29"/>
-      <c r="BV14" s="29"/>
+      <c r="BV14" s="29">
+        <v>4576</v>
+      </c>
       <c r="BW14" s="32"/>
       <c r="BX14" s="251"/>
       <c r="BY14" s="39"/>
-      <c r="BZ14" s="32"/>
+      <c r="BZ14" s="32">
+        <v>456</v>
+      </c>
       <c r="CA14" s="251"/>
       <c r="CB14" s="35"/>
-      <c r="CC14" s="35"/>
-      <c r="CD14" s="252"/>
+      <c r="CC14" s="35">
+        <v>543</v>
+      </c>
+      <c r="CD14" s="252">
+        <v>756</v>
+      </c>
       <c r="CE14" s="251"/>
       <c r="CF14" s="95"/>
       <c r="CG14" s="248"/>
@@ -5938,11 +6150,19 @@
       <c r="CM14" s="252"/>
       <c r="CN14" s="94"/>
     </row>
-    <row r="15" spans="1:101" s="2" customFormat="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
+    <row r="15" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A15" s="278" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="278" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="279" t="s">
+        <v>124</v>
+      </c>
       <c r="E15" s="174"/>
       <c r="F15" s="174"/>
       <c r="G15" s="175"/>
@@ -5959,7 +6179,9 @@
       <c r="R15" s="195"/>
       <c r="S15" s="250"/>
       <c r="T15" s="194"/>
-      <c r="U15" s="195"/>
+      <c r="U15" s="195">
+        <v>15</v>
+      </c>
       <c r="V15" s="195"/>
       <c r="W15" s="195"/>
       <c r="X15" s="195"/>
@@ -5978,7 +6200,9 @@
       <c r="AK15" s="79"/>
       <c r="AL15" s="79"/>
       <c r="AM15" s="79"/>
-      <c r="AN15" s="93"/>
+      <c r="AN15" s="93" t="s">
+        <v>125</v>
+      </c>
       <c r="AO15" s="97"/>
       <c r="AP15" s="79"/>
       <c r="AQ15" s="44"/>
@@ -6002,13 +6226,19 @@
       <c r="BI15" s="39"/>
       <c r="BJ15" s="32"/>
       <c r="BK15" s="251"/>
-      <c r="BL15" s="57"/>
+      <c r="BL15" s="57">
+        <v>23</v>
+      </c>
       <c r="BM15" s="57"/>
       <c r="BN15" s="32"/>
       <c r="BO15" s="251"/>
-      <c r="BP15" s="39"/>
+      <c r="BP15" s="39">
+        <v>654</v>
+      </c>
       <c r="BQ15" s="32"/>
-      <c r="BR15" s="251"/>
+      <c r="BR15" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="BS15" s="39"/>
       <c r="BT15" s="29"/>
       <c r="BU15" s="29"/>
@@ -6018,7 +6248,9 @@
       <c r="BY15" s="39"/>
       <c r="BZ15" s="32"/>
       <c r="CA15" s="251"/>
-      <c r="CB15" s="35"/>
+      <c r="CB15" s="35">
+        <v>467</v>
+      </c>
       <c r="CC15" s="35"/>
       <c r="CD15" s="252"/>
       <c r="CE15" s="251"/>
@@ -6032,11 +6264,19 @@
       <c r="CM15" s="252"/>
       <c r="CN15" s="94"/>
     </row>
-    <row r="16" spans="1:101" s="2" customFormat="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
+    <row r="16" spans="1:101" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A16" s="278">
+        <v>44377</v>
+      </c>
+      <c r="B16" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="278" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="279" t="s">
+        <v>124</v>
+      </c>
       <c r="E16" s="174"/>
       <c r="F16" s="174"/>
       <c r="G16" s="175"/>
@@ -6046,7 +6286,9 @@
       <c r="K16" s="86"/>
       <c r="L16" s="55"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="44"/>
+      <c r="N16" s="44">
+        <v>321</v>
+      </c>
       <c r="O16" s="251"/>
       <c r="P16" s="194"/>
       <c r="Q16" s="195"/>
@@ -6056,12 +6298,16 @@
       <c r="U16" s="195"/>
       <c r="V16" s="195"/>
       <c r="W16" s="195"/>
-      <c r="X16" s="195"/>
+      <c r="X16" s="195">
+        <v>145</v>
+      </c>
       <c r="Y16" s="195"/>
       <c r="Z16" s="251"/>
       <c r="AA16" s="194"/>
       <c r="AB16" s="228"/>
-      <c r="AC16" s="195"/>
+      <c r="AC16" s="195">
+        <v>546</v>
+      </c>
       <c r="AD16" s="250"/>
       <c r="AE16" s="96"/>
       <c r="AF16" s="79"/>
@@ -6070,18 +6316,26 @@
       <c r="AI16" s="79"/>
       <c r="AJ16" s="79"/>
       <c r="AK16" s="79"/>
-      <c r="AL16" s="79"/>
+      <c r="AL16" s="79">
+        <v>45</v>
+      </c>
       <c r="AM16" s="79"/>
       <c r="AN16" s="93"/>
       <c r="AO16" s="97"/>
-      <c r="AP16" s="79"/>
+      <c r="AP16" s="79">
+        <v>34</v>
+      </c>
       <c r="AQ16" s="44"/>
       <c r="AR16" s="80"/>
-      <c r="AS16" s="79"/>
+      <c r="AS16" s="79">
+        <v>789</v>
+      </c>
       <c r="AT16" s="44"/>
       <c r="AU16" s="80"/>
       <c r="AV16" s="43"/>
-      <c r="AW16" s="83"/>
+      <c r="AW16" s="83">
+        <v>876</v>
+      </c>
       <c r="AX16" s="42"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="43"/>
@@ -6108,12 +6362,16 @@
       <c r="BU16" s="29"/>
       <c r="BV16" s="29"/>
       <c r="BW16" s="32"/>
-      <c r="BX16" s="251"/>
+      <c r="BX16" s="251" t="s">
+        <v>118</v>
+      </c>
       <c r="BY16" s="39"/>
       <c r="BZ16" s="32"/>
       <c r="CA16" s="251"/>
       <c r="CB16" s="35"/>
-      <c r="CC16" s="35"/>
+      <c r="CC16" s="35">
+        <v>4326</v>
+      </c>
       <c r="CD16" s="252"/>
       <c r="CE16" s="251"/>
       <c r="CF16" s="95"/>
@@ -6126,11 +6384,19 @@
       <c r="CM16" s="252"/>
       <c r="CN16" s="94"/>
     </row>
-    <row r="17" spans="1:92" s="2" customFormat="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
+    <row r="17" spans="1:92" s="2" customFormat="1" ht="13.25" thickBot="1">
+      <c r="A17" s="278">
+        <v>44562</v>
+      </c>
+      <c r="B17" s="278" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="278" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="279" t="s">
+        <v>117</v>
+      </c>
       <c r="E17" s="174"/>
       <c r="F17" s="174"/>
       <c r="G17" s="175"/>
@@ -6144,22 +6410,30 @@
       <c r="O17" s="251"/>
       <c r="P17" s="194"/>
       <c r="Q17" s="195"/>
-      <c r="R17" s="195"/>
+      <c r="R17" s="195">
+        <v>235</v>
+      </c>
       <c r="S17" s="250"/>
       <c r="T17" s="194"/>
       <c r="U17" s="195"/>
-      <c r="V17" s="195"/>
+      <c r="V17" s="195">
+        <v>2</v>
+      </c>
       <c r="W17" s="195"/>
       <c r="X17" s="195"/>
       <c r="Y17" s="195"/>
       <c r="Z17" s="251"/>
-      <c r="AA17" s="194"/>
+      <c r="AA17" s="194">
+        <v>43</v>
+      </c>
       <c r="AB17" s="228"/>
       <c r="AC17" s="195"/>
       <c r="AD17" s="250"/>
       <c r="AE17" s="96"/>
       <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
+      <c r="AG17" s="79">
+        <v>23</v>
+      </c>
       <c r="AH17" s="79"/>
       <c r="AI17" s="79"/>
       <c r="AJ17" s="79"/>
@@ -6168,7 +6442,9 @@
       <c r="AM17" s="79"/>
       <c r="AN17" s="93"/>
       <c r="AO17" s="97"/>
-      <c r="AP17" s="79"/>
+      <c r="AP17" s="79">
+        <v>655</v>
+      </c>
       <c r="AQ17" s="44"/>
       <c r="AR17" s="80"/>
       <c r="AS17" s="79"/>
@@ -6185,13 +6461,17 @@
       <c r="BD17" s="251"/>
       <c r="BE17" s="251"/>
       <c r="BF17" s="39"/>
-      <c r="BG17" s="32"/>
+      <c r="BG17" s="32">
+        <v>34</v>
+      </c>
       <c r="BH17" s="251"/>
       <c r="BI17" s="39"/>
       <c r="BJ17" s="32"/>
       <c r="BK17" s="251"/>
       <c r="BL17" s="57"/>
-      <c r="BM17" s="57"/>
+      <c r="BM17" s="57">
+        <v>768</v>
+      </c>
       <c r="BN17" s="32"/>
       <c r="BO17" s="251"/>
       <c r="BP17" s="39"/>
@@ -6200,11 +6480,15 @@
       <c r="BS17" s="39"/>
       <c r="BT17" s="29"/>
       <c r="BU17" s="29"/>
-      <c r="BV17" s="29"/>
+      <c r="BV17" s="29">
+        <v>876</v>
+      </c>
       <c r="BW17" s="32"/>
       <c r="BX17" s="251"/>
       <c r="BY17" s="39"/>
-      <c r="BZ17" s="32"/>
+      <c r="BZ17" s="32">
+        <v>432</v>
+      </c>
       <c r="CA17" s="251"/>
       <c r="CB17" s="35"/>
       <c r="CC17" s="35"/>
@@ -18537,29 +18821,6 @@
   </sheetData>
   <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="39">
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="CA2:CA4"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="CN3:CN4"/>
     <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="AU3:AV3"/>
@@ -18576,6 +18837,29 @@
     <mergeCell ref="BY2:BZ2"/>
     <mergeCell ref="BK2:BK4"/>
     <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="CA2:CA4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AR2:AT2"/>
   </mergeCells>
   <conditionalFormatting sqref="O9 AN9">
     <cfRule type="cellIs" dxfId="173" priority="1471" operator="equal">

--- a/src/excely/DVP_template_empty.xlsx
+++ b/src/excely/DVP_template_empty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MatFyz\V_SEMESTER\BOGE\form-versions\src\excely\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E94CC-F3FF-400C-B952-33EC8B8BF316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497242D-2A7A-4F57-8FB1-B8E6BC7C53FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22810" yWindow="-15670" windowWidth="32580" windowHeight="17990" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-18570" windowWidth="38620" windowHeight="21100" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DVP Internal" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="123">
   <si>
     <r>
       <t>F</t>
@@ -657,21 +657,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>273.000.013.459A</t>
-  </si>
-  <si>
-    <t>273.000.013.459B</t>
-  </si>
-  <si>
-    <t>273.000.013.459V</t>
-  </si>
-  <si>
-    <t>273.000.013.459C</t>
-  </si>
-  <si>
-    <t>273.000.013.459D</t>
-  </si>
-  <si>
     <t>6M0.412.377.F EM10</t>
   </si>
   <si>
@@ -681,7 +666,7 @@
     <t>5/14/2019</t>
   </si>
   <si>
-    <t>5/14/2020</t>
+    <t>273.401.012.379C</t>
   </si>
 </sst>
 </file>
@@ -2551,9 +2536,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2561,6 +2543,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3835,7 +3820,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Verhältnisrech."/>
@@ -3848,7 +3833,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Verhältnisrech."/>
@@ -4183,11 +4168,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="CH8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="CF2" sqref="CF2:CI2"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -4304,16 +4289,16 @@
       <c r="H2" s="279"/>
       <c r="I2" s="279"/>
       <c r="J2" s="280"/>
-      <c r="K2" s="300" t="s">
+      <c r="K2" s="299" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="302"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="301"/>
       <c r="O2" s="284" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="299" t="s">
+      <c r="P2" s="302" t="s">
         <v>92</v>
       </c>
       <c r="Q2" s="291"/>
@@ -4330,7 +4315,7 @@
       <c r="Z2" s="284" t="s">
         <v>100</v>
       </c>
-      <c r="AA2" s="299" t="s">
+      <c r="AA2" s="302" t="s">
         <v>94</v>
       </c>
       <c r="AB2" s="291"/>
@@ -5364,7 +5349,7 @@
         <v>116</v>
       </c>
       <c r="C9" s="259" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D9" s="260" t="s">
         <v>117</v>
@@ -5487,14 +5472,14 @@
       <c r="CN9" s="80"/>
     </row>
     <row r="10" spans="1:99" ht="13.8" thickBot="1">
-      <c r="A10" s="259" t="s">
-        <v>127</v>
+      <c r="A10" s="259">
+        <v>44083</v>
       </c>
       <c r="B10" s="259" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="259" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D10" s="260" t="s">
         <v>117</v>
@@ -5567,7 +5552,7 @@
       <c r="AZ10" s="33"/>
       <c r="BA10" s="70"/>
       <c r="BB10" s="234" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BC10" s="234"/>
       <c r="BD10" s="234"/>
@@ -5622,13 +5607,13 @@
     </row>
     <row r="11" spans="1:99" ht="13.8" thickBot="1">
       <c r="A11" s="259">
-        <v>44113</v>
+        <v>44083</v>
       </c>
       <c r="B11" s="259" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="259" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D11" s="260" t="s">
         <v>117</v>
@@ -5738,13 +5723,13 @@
     </row>
     <row r="12" spans="1:99" ht="13.8" thickBot="1">
       <c r="A12" s="259">
-        <v>44020</v>
+        <v>44083</v>
       </c>
       <c r="B12" s="259" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="259" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D12" s="260" t="s">
         <v>117</v>
@@ -5762,7 +5747,7 @@
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="234" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P12" s="180"/>
       <c r="Q12" s="181"/>
@@ -5812,7 +5797,7 @@
       <c r="BA12" s="70"/>
       <c r="BB12" s="234"/>
       <c r="BC12" s="234" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BD12" s="234"/>
       <c r="BE12" s="234"/>
@@ -5828,7 +5813,7 @@
       <c r="BM12" s="46"/>
       <c r="BN12" s="22"/>
       <c r="BO12" s="234" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BP12" s="29"/>
       <c r="BQ12" s="22"/>
@@ -5843,7 +5828,7 @@
       <c r="BV12" s="20"/>
       <c r="BW12" s="22"/>
       <c r="BX12" s="234" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BY12" s="29">
         <v>234</v>
@@ -5874,10 +5859,10 @@
         <v>116</v>
       </c>
       <c r="C13" s="259" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D13" s="260" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E13" s="160"/>
       <c r="F13" s="160"/>
@@ -5988,10 +5973,10 @@
         <v>116</v>
       </c>
       <c r="C14" s="259" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14" s="260" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E14" s="160"/>
       <c r="F14" s="160"/>
@@ -6006,7 +5991,7 @@
       <c r="M14" s="66"/>
       <c r="N14" s="34"/>
       <c r="O14" s="234" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P14" s="180"/>
       <c r="Q14" s="181"/>
@@ -6070,7 +6055,7 @@
       </c>
       <c r="BJ14" s="22"/>
       <c r="BK14" s="234" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BL14" s="46"/>
       <c r="BM14" s="46"/>
@@ -6114,16 +6099,16 @@
     </row>
     <row r="15" spans="1:99" ht="13.8" thickBot="1">
       <c r="A15" s="259" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B15" s="259" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="259" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="260" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E15" s="160"/>
       <c r="F15" s="160"/>
@@ -6163,7 +6148,7 @@
       <c r="AL15" s="66"/>
       <c r="AM15" s="66"/>
       <c r="AN15" s="79" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AO15" s="83"/>
       <c r="AP15" s="66"/>
@@ -6237,7 +6222,7 @@
         <v>122</v>
       </c>
       <c r="D16" s="260" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E16" s="160"/>
       <c r="F16" s="160"/>
@@ -6354,7 +6339,7 @@
         <v>116</v>
       </c>
       <c r="C17" s="259" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="260" t="s">
         <v>117</v>
@@ -18783,19 +18768,17 @@
   </sheetData>
   <autoFilter ref="A1:A8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="43">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="CF2:CI2"/>
     <mergeCell ref="BH2:BH4"/>
     <mergeCell ref="CA2:CA4"/>
     <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="BI2:BJ2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="AO3:AP3"/>
@@ -18810,6 +18793,8 @@
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
     <mergeCell ref="CN3:CN4"/>
     <mergeCell ref="AR3:AS3"/>
     <mergeCell ref="AU3:AV3"/>
